--- a/data/RawData/ObsData/2009-2022/2021/14-07-2021.xlsx
+++ b/data/RawData/ObsData/2009-2022/2021/14-07-2021.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC62F74-7DEE-41B6-9B32-2AAE92D6974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F1B20-E455-4F02-BBAD-445367047E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="570">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1716,6 +1716,27 @@
   </si>
   <si>
     <t>Faz. Sta Helena 1</t>
+  </si>
+  <si>
+    <t>MP352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP353 </t>
+  </si>
+  <si>
+    <t>MP353</t>
+  </si>
+  <si>
+    <t>RTII</t>
+  </si>
+  <si>
+    <t>MP354</t>
+  </si>
+  <si>
+    <t>MP355</t>
+  </si>
+  <si>
+    <t>MP356</t>
   </si>
 </sst>
 </file>
@@ -4687,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="114" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A139" sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="R204" sqref="R204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9115,20 +9136,26 @@
       <c r="Q117" s="195"/>
     </row>
     <row r="118" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="68"/>
-      <c r="B118" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63" t="s">
+      <c r="A118" s="329"/>
+      <c r="B118" s="301" t="s">
+        <v>563</v>
+      </c>
+      <c r="C118" s="301" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="301" t="s">
+        <v>563</v>
+      </c>
+      <c r="E118" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="301" t="s">
         <v>26</v>
       </c>
-      <c r="G118" s="198" t="s">
+      <c r="G118" s="332" t="s">
         <v>392</v>
       </c>
-      <c r="H118" s="195"/>
+      <c r="H118" s="331"/>
       <c r="I118" s="13"/>
       <c r="J118" s="156"/>
       <c r="K118" s="79" t="s">
@@ -9144,20 +9171,26 @@
       <c r="Q118" s="157"/>
     </row>
     <row r="119" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="156"/>
-      <c r="B119" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79" t="s">
+      <c r="A119" s="333"/>
+      <c r="B119" s="334" t="s">
+        <v>564</v>
+      </c>
+      <c r="C119" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="334" t="s">
+        <v>565</v>
+      </c>
+      <c r="E119" s="334" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="134" t="s">
+      <c r="G119" s="335" t="s">
         <v>392</v>
       </c>
-      <c r="H119" s="157"/>
+      <c r="H119" s="336"/>
       <c r="I119" s="172"/>
       <c r="J119" s="368"/>
       <c r="K119" s="227"/>
@@ -12573,7 +12606,7 @@
       </c>
       <c r="Q209" s="450"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="18" t="s">
         <v>256</v>
@@ -12604,7 +12637,7 @@
       <c r="P210" s="447"/>
       <c r="Q210" s="457"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="18" t="s">
         <v>262</v>
@@ -12626,7 +12659,9 @@
       </c>
       <c r="H211" s="29"/>
       <c r="I211" s="357"/>
-      <c r="J211" s="158"/>
+      <c r="J211" s="441" t="s">
+        <v>166</v>
+      </c>
       <c r="K211" s="158"/>
       <c r="L211" s="158"/>
       <c r="M211" s="158"/>
@@ -12649,14 +12684,28 @@
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="357"/>
-      <c r="J212" s="158"/>
-      <c r="K212" s="158"/>
-      <c r="L212" s="158"/>
-      <c r="M212" s="158"/>
-      <c r="N212" s="158"/>
-      <c r="O212" s="158"/>
-      <c r="P212" s="158"/>
-      <c r="Q212" s="160"/>
+      <c r="J212" s="286" t="s">
+        <v>566</v>
+      </c>
+      <c r="K212" s="287" t="s">
+        <v>567</v>
+      </c>
+      <c r="L212" s="287" t="s">
+        <v>240</v>
+      </c>
+      <c r="M212" s="287" t="s">
+        <v>567</v>
+      </c>
+      <c r="N212" s="287" t="s">
+        <v>14</v>
+      </c>
+      <c r="O212" s="287" t="s">
+        <v>11</v>
+      </c>
+      <c r="P212" s="288" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q212" s="328"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="30"/>
@@ -12680,14 +12729,26 @@
       </c>
       <c r="H213" s="40"/>
       <c r="I213" s="357"/>
-      <c r="J213" s="158"/>
-      <c r="K213" s="158"/>
-      <c r="L213" s="158"/>
-      <c r="M213" s="158"/>
-      <c r="N213" s="158"/>
-      <c r="O213" s="158"/>
-      <c r="P213" s="158"/>
-      <c r="Q213" s="160"/>
+      <c r="J213" s="329"/>
+      <c r="K213" s="301" t="s">
+        <v>568</v>
+      </c>
+      <c r="L213" s="301" t="s">
+        <v>22</v>
+      </c>
+      <c r="M213" s="301" t="s">
+        <v>568</v>
+      </c>
+      <c r="N213" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="O213" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="P213" s="330" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q213" s="331"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="45"/>
@@ -12699,14 +12760,26 @@
       <c r="G214" s="74"/>
       <c r="H214" s="74"/>
       <c r="I214" s="74"/>
-      <c r="J214" s="158"/>
-      <c r="K214" s="158"/>
-      <c r="L214" s="158"/>
-      <c r="M214" s="158"/>
-      <c r="N214" s="158"/>
-      <c r="O214" s="158"/>
-      <c r="P214" s="158"/>
-      <c r="Q214" s="160"/>
+      <c r="J214" s="329"/>
+      <c r="K214" s="301" t="s">
+        <v>569</v>
+      </c>
+      <c r="L214" s="301" t="s">
+        <v>251</v>
+      </c>
+      <c r="M214" s="301" t="s">
+        <v>569</v>
+      </c>
+      <c r="N214" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="O214" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="P214" s="332" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q214" s="331"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="45"/>
